--- a/data/freqdistwordsLinkedin.xlsx
+++ b/data/freqdistwordsLinkedin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayers/Temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayers/Dropbox/Code/SkillsThis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="740" windowWidth="29940" windowHeight="26880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="10780" yWindow="740" windowWidth="29940" windowHeight="26880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="freqdistwordsLinkedin" sheetId="1" r:id="rId1"/>
@@ -7838,9 +7838,9 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F3041"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E701" sqref="E701"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1801" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3013" sqref="A3013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8168,9 +8168,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>1657</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -8179,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>894</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>2477</v>
@@ -8845,9 +8845,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -8856,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>440</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
         <v>2477</v>
@@ -8972,9 +8972,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>1461</v>
       </c>
       <c r="B72" t="s">
         <v>1</v>
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>417</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
         <v>2477</v>
@@ -9276,9 +9276,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>352</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
         <v>2477</v>
@@ -9436,18 +9436,18 @@
         <v>329</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="B103" t="s">
-        <v>1</v>
+        <v>2031</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="E103" t="s">
         <v>2477</v>
@@ -9543,18 +9543,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s">
-        <v>1</v>
+        <v>2031</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>2013</v>
       </c>
       <c r="D110">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="E110" t="s">
         <v>2477</v>
@@ -10154,9 +10154,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="E150" t="s">
         <v>2477</v>
@@ -10382,9 +10382,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -10393,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="E165" t="s">
         <v>2477</v>
@@ -10928,18 +10928,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>2028</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="E201" t="s">
         <v>2477</v>
@@ -11106,18 +11106,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>2164</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="E212" t="s">
         <v>2477</v>
@@ -11272,18 +11272,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="B223" t="s">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="E223" t="s">
         <v>2477</v>
@@ -11568,18 +11568,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B242" t="s">
-        <v>1</v>
+        <v>2158</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="E242" t="s">
         <v>2477</v>
@@ -11957,18 +11957,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="B267" t="s">
-        <v>1999</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="E267" t="s">
         <v>2477</v>
@@ -12718,9 +12718,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>286</v>
+        <v>547</v>
       </c>
       <c r="B316" t="s">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="D316">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="E316" t="s">
         <v>2477</v>
@@ -13656,9 +13656,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>338</v>
+        <v>1280</v>
       </c>
       <c r="B377" t="s">
         <v>1</v>
@@ -13667,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="D377">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="E377" t="s">
         <v>2477</v>
@@ -14174,9 +14174,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="B411" t="s">
         <v>1</v>
@@ -14185,7 +14185,7 @@
         <v>1</v>
       </c>
       <c r="D411">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E411" t="s">
         <v>2477</v>
@@ -14368,9 +14368,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>372</v>
+        <v>1056</v>
       </c>
       <c r="B424" t="s">
         <v>1</v>
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="D424">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="E424" t="s">
         <v>2477</v>
@@ -14461,18 +14461,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>377</v>
+        <v>1272</v>
       </c>
       <c r="B430" t="s">
-        <v>1</v>
+        <v>2335</v>
       </c>
       <c r="C430" t="s">
         <v>1</v>
       </c>
       <c r="D430">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E430" t="s">
         <v>2477</v>
@@ -14844,9 +14844,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>400</v>
+        <v>1809</v>
       </c>
       <c r="B455" t="s">
         <v>1</v>
@@ -14855,7 +14855,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E455" t="s">
         <v>2477</v>
@@ -14878,9 +14878,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>401</v>
+        <v>1725</v>
       </c>
       <c r="B457" t="s">
         <v>1</v>
@@ -14889,7 +14889,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E457" t="s">
         <v>2477</v>
@@ -15112,9 +15112,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>413</v>
+        <v>19</v>
       </c>
       <c r="B472" t="s">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="D472">
-        <v>98</v>
+        <v>894</v>
       </c>
       <c r="E472" t="s">
         <v>2477</v>
@@ -15366,35 +15366,35 @@
         <v>94</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>426</v>
+        <v>19</v>
       </c>
       <c r="B488" t="s">
-        <v>1</v>
+        <v>2075</v>
       </c>
       <c r="C488" t="s">
         <v>1</v>
       </c>
       <c r="D488">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="E488" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>427</v>
+        <v>19</v>
       </c>
       <c r="B489" t="s">
-        <v>1</v>
+        <v>2100</v>
       </c>
       <c r="C489" t="s">
         <v>1</v>
       </c>
       <c r="D489">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E489" t="s">
         <v>2477</v>
@@ -15609,18 +15609,18 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>441</v>
+        <v>19</v>
       </c>
       <c r="B503" t="s">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C503" t="s">
         <v>1</v>
       </c>
       <c r="D503">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E503" t="s">
         <v>2477</v>
@@ -15719,18 +15719,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>447</v>
+        <v>19</v>
       </c>
       <c r="B510" t="s">
-        <v>1</v>
+        <v>2038</v>
       </c>
       <c r="C510" t="s">
         <v>1</v>
       </c>
       <c r="D510">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E510" t="s">
         <v>2477</v>
@@ -16037,18 +16037,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="B531" t="s">
-        <v>1</v>
+        <v>1984</v>
       </c>
       <c r="C531" t="s">
         <v>1</v>
       </c>
       <c r="D531">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E531" t="s">
         <v>2477</v>
@@ -16082,18 +16082,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B534" t="s">
-        <v>2028</v>
+        <v>2470</v>
       </c>
       <c r="C534" t="s">
         <v>1</v>
       </c>
       <c r="D534">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E534" t="s">
         <v>2477</v>
@@ -16133,18 +16133,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="B537" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="C537" t="s">
         <v>1</v>
       </c>
       <c r="D537">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E537" t="s">
         <v>2477</v>
@@ -16373,18 +16373,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="B552" t="s">
-        <v>1</v>
+        <v>2188</v>
       </c>
       <c r="C552" t="s">
         <v>1</v>
       </c>
       <c r="D552">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E552" t="s">
         <v>2477</v>
@@ -16714,18 +16714,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="B574" t="s">
-        <v>2031</v>
+        <v>2013</v>
       </c>
       <c r="C574" t="s">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="D574">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E574" t="s">
         <v>2477</v>
@@ -16897,9 +16897,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>503</v>
+        <v>222</v>
       </c>
       <c r="B586" t="s">
         <v>1</v>
@@ -16908,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="D586">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="E586" t="s">
         <v>2477</v>
@@ -17870,18 +17870,18 @@
         <v>73</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>547</v>
+        <v>222</v>
       </c>
       <c r="B651" t="s">
-        <v>1</v>
+        <v>2318</v>
       </c>
       <c r="C651" t="s">
         <v>1</v>
       </c>
       <c r="D651">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E651" t="s">
         <v>2477</v>
@@ -18160,18 +18160,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>88</v>
+        <v>1406</v>
       </c>
       <c r="B670" t="s">
-        <v>2050</v>
+        <v>1</v>
       </c>
       <c r="C670" t="s">
         <v>1</v>
       </c>
       <c r="D670">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E670" t="s">
         <v>2477</v>
@@ -18360,21 +18360,21 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>572</v>
+        <v>102</v>
       </c>
       <c r="B683" t="s">
-        <v>1</v>
+        <v>2329</v>
       </c>
       <c r="C683" t="s">
         <v>1</v>
       </c>
       <c r="D683">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E683" t="s">
-        <v>2484</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -18630,9 +18630,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>585</v>
+        <v>1842</v>
       </c>
       <c r="B701" t="s">
         <v>1</v>
@@ -18641,7 +18641,7 @@
         <v>1</v>
       </c>
       <c r="D701">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E701" t="s">
         <v>2477</v>
@@ -18922,9 +18922,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>596</v>
+        <v>707</v>
       </c>
       <c r="B721" t="s">
         <v>1</v>
@@ -18933,7 +18933,7 @@
         <v>1</v>
       </c>
       <c r="D721">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E721" t="s">
         <v>2477</v>
@@ -19001,9 +19001,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>601</v>
+        <v>908</v>
       </c>
       <c r="B726" t="s">
         <v>1</v>
@@ -19012,7 +19012,7 @@
         <v>1</v>
       </c>
       <c r="D726">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E726" t="s">
         <v>2477</v>
@@ -19635,18 +19635,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>19</v>
+        <v>908</v>
       </c>
       <c r="B770" t="s">
-        <v>2075</v>
+        <v>2326</v>
       </c>
       <c r="C770" t="s">
         <v>1</v>
       </c>
       <c r="D770">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E770" t="s">
         <v>2477</v>
@@ -19669,9 +19669,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>617</v>
+        <v>69</v>
       </c>
       <c r="B772" t="s">
         <v>1</v>
@@ -19680,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="D772">
-        <v>63</v>
+        <v>417</v>
       </c>
       <c r="E772" t="s">
         <v>2477</v>
@@ -19934,18 +19934,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>629</v>
+        <v>69</v>
       </c>
       <c r="B789" t="s">
-        <v>1</v>
+        <v>2050</v>
       </c>
       <c r="C789" t="s">
         <v>1</v>
       </c>
       <c r="D789">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E789" t="s">
         <v>2477</v>
@@ -20505,18 +20505,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B827" t="s">
-        <v>2083</v>
+        <v>1984</v>
       </c>
       <c r="C827" t="s">
         <v>1</v>
       </c>
       <c r="D827">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E827" t="s">
         <v>2477</v>
@@ -20570,18 +20570,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>659</v>
+        <v>69</v>
       </c>
       <c r="B831" t="s">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="C831" t="s">
         <v>1</v>
       </c>
       <c r="D831">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="E831" t="s">
         <v>2477</v>
@@ -20807,18 +20807,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>670</v>
+        <v>210</v>
       </c>
       <c r="B846" t="s">
-        <v>1</v>
+        <v>2382</v>
       </c>
       <c r="C846" t="s">
         <v>1</v>
       </c>
       <c r="D846">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E846" t="s">
         <v>2477</v>
@@ -21161,18 +21161,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>69</v>
+        <v>728</v>
       </c>
       <c r="B870" t="s">
-        <v>2050</v>
+        <v>1</v>
       </c>
       <c r="C870" t="s">
         <v>1</v>
       </c>
       <c r="D870">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E870" t="s">
         <v>2477</v>
@@ -21609,9 +21609,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>707</v>
+        <v>1203</v>
       </c>
       <c r="B899" t="s">
         <v>1</v>
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
       <c r="D899">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E899" t="s">
         <v>2477</v>
@@ -21668,9 +21668,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>711</v>
+        <v>821</v>
       </c>
       <c r="B903" t="s">
         <v>1</v>
@@ -21679,7 +21679,7 @@
         <v>1</v>
       </c>
       <c r="D903">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E903" t="s">
         <v>2477</v>
@@ -21736,18 +21736,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>0</v>
+        <v>1733</v>
       </c>
       <c r="B907" t="s">
-        <v>2102</v>
+        <v>1</v>
       </c>
       <c r="C907" t="s">
         <v>1</v>
       </c>
       <c r="D907">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E907" t="s">
         <v>2477</v>
@@ -21801,9 +21801,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>715</v>
+        <v>1670</v>
       </c>
       <c r="B911" t="s">
         <v>1</v>
@@ -21812,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="D911">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="E911" t="s">
         <v>2477</v>
@@ -21832,9 +21832,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>717</v>
+        <v>833</v>
       </c>
       <c r="B913" t="s">
         <v>1</v>
@@ -21843,7 +21843,7 @@
         <v>1</v>
       </c>
       <c r="D913">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E913" t="s">
         <v>2477</v>
@@ -22057,18 +22057,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>726</v>
+        <v>1091</v>
       </c>
       <c r="B928" t="s">
-        <v>1</v>
+        <v>2302</v>
       </c>
       <c r="C928" t="s">
         <v>1</v>
       </c>
       <c r="D928">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E928" t="s">
         <v>2477</v>
@@ -22088,18 +22088,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>728</v>
+        <v>457</v>
       </c>
       <c r="B930" t="s">
-        <v>1</v>
+        <v>2321</v>
       </c>
       <c r="C930" t="s">
         <v>1</v>
       </c>
       <c r="D930">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E930" t="s">
         <v>2477</v>
@@ -22336,9 +22336,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>740</v>
+        <v>1631</v>
       </c>
       <c r="B946" t="s">
         <v>1</v>
@@ -22347,7 +22347,7 @@
         <v>1</v>
       </c>
       <c r="D946">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E946" t="s">
         <v>2477</v>
@@ -22632,18 +22632,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>99</v>
+        <v>601</v>
       </c>
       <c r="B965" t="s">
-        <v>2028</v>
+        <v>1</v>
       </c>
       <c r="C965" t="s">
         <v>1</v>
       </c>
       <c r="D965">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E965" t="s">
         <v>2477</v>
@@ -22804,9 +22804,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="B976" t="s">
         <v>1</v>
@@ -22815,7 +22815,7 @@
         <v>1</v>
       </c>
       <c r="D976">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E976" t="s">
         <v>2477</v>
@@ -22866,18 +22866,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>195</v>
+        <v>912</v>
       </c>
       <c r="B980" t="s">
-        <v>2100</v>
+        <v>1</v>
       </c>
       <c r="C980" t="s">
         <v>1</v>
       </c>
       <c r="D980">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E980" t="s">
         <v>2477</v>
@@ -23007,18 +23007,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>762</v>
+        <v>912</v>
       </c>
       <c r="B989" t="s">
-        <v>1</v>
+        <v>2025</v>
       </c>
       <c r="C989" t="s">
         <v>1</v>
       </c>
       <c r="D989">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E989" t="s">
         <v>2477</v>
@@ -23522,9 +23522,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>784</v>
+        <v>503</v>
       </c>
       <c r="B1023" t="s">
         <v>1</v>
@@ -23533,7 +23533,7 @@
         <v>1</v>
       </c>
       <c r="D1023">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E1023" t="s">
         <v>2477</v>
@@ -23837,9 +23837,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>800</v>
+        <v>1586</v>
       </c>
       <c r="B1044" t="s">
         <v>1</v>
@@ -23848,7 +23848,7 @@
         <v>1</v>
       </c>
       <c r="D1044">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E1044" t="s">
         <v>2477</v>
@@ -24219,9 +24219,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>821</v>
+        <v>1247</v>
       </c>
       <c r="B1070" t="s">
         <v>1</v>
@@ -24230,7 +24230,7 @@
         <v>1</v>
       </c>
       <c r="D1070">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E1070" t="s">
         <v>2477</v>
@@ -24517,9 +24517,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>19</v>
+        <v>1247</v>
       </c>
       <c r="B1090" t="s">
         <v>1984</v>
@@ -24528,15 +24528,15 @@
         <v>1</v>
       </c>
       <c r="D1090">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E1090" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>832</v>
+        <v>1917</v>
       </c>
       <c r="B1091" t="s">
         <v>1</v>
@@ -24545,15 +24545,15 @@
         <v>1</v>
       </c>
       <c r="D1091">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E1091" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>833</v>
+        <v>1439</v>
       </c>
       <c r="B1092" t="s">
         <v>1</v>
@@ -24562,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="D1092">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E1092" t="s">
         <v>2477</v>
@@ -24908,26 +24908,26 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>850</v>
+        <v>263</v>
       </c>
       <c r="B1116" t="s">
-        <v>1</v>
+        <v>2030</v>
       </c>
       <c r="C1116" t="s">
         <v>1</v>
       </c>
       <c r="D1116">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E1116" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>851</v>
+        <v>711</v>
       </c>
       <c r="B1117" t="s">
         <v>1</v>
@@ -24936,7 +24936,7 @@
         <v>1</v>
       </c>
       <c r="D1117">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E1117" t="s">
         <v>2477</v>
@@ -24984,7 +24984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>855</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>856</v>
       </c>
@@ -25012,7 +25012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>857</v>
       </c>
@@ -25026,7 +25026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>858</v>
       </c>
@@ -25040,7 +25040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>859</v>
       </c>
@@ -25054,9 +25054,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>860</v>
+        <v>1604</v>
       </c>
       <c r="B1126" t="s">
         <v>1</v>
@@ -25065,16 +25065,13 @@
         <v>1</v>
       </c>
       <c r="D1126">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E1126" t="s">
         <v>2477</v>
       </c>
-      <c r="F1126" t="s">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>861</v>
       </c>
@@ -25088,7 +25085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>862</v>
       </c>
@@ -25102,7 +25099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>863</v>
       </c>
@@ -25116,7 +25113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>162</v>
       </c>
@@ -25130,7 +25127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>407</v>
       </c>
@@ -25144,7 +25141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>23</v>
       </c>
@@ -25161,7 +25158,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>29</v>
       </c>
@@ -25175,7 +25172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>60</v>
       </c>
@@ -25192,7 +25189,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>306</v>
       </c>
@@ -25209,18 +25206,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>12</v>
+        <v>1951</v>
       </c>
       <c r="B1136" t="s">
-        <v>2028</v>
+        <v>1</v>
       </c>
       <c r="C1136" t="s">
         <v>1</v>
       </c>
       <c r="D1136">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E1136" t="s">
         <v>2477</v>
@@ -25282,9 +25279,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>867</v>
+        <v>715</v>
       </c>
       <c r="B1141" t="s">
         <v>1</v>
@@ -25293,15 +25290,15 @@
         <v>1</v>
       </c>
       <c r="D1141">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E1141" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>868</v>
+        <v>61</v>
       </c>
       <c r="B1142" t="s">
         <v>1</v>
@@ -25310,7 +25307,7 @@
         <v>1</v>
       </c>
       <c r="D1142">
-        <v>42</v>
+        <v>440</v>
       </c>
       <c r="E1142" t="s">
         <v>2477</v>
@@ -25918,18 +25915,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>2416</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1183">
         <v>19</v>
-      </c>
-      <c r="B1183" t="s">
-        <v>2025</v>
-      </c>
-      <c r="C1183" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1183">
-        <v>41</v>
       </c>
       <c r="E1183" t="s">
         <v>2477</v>
@@ -26067,18 +26064,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>903</v>
+        <v>61</v>
       </c>
       <c r="B1193" t="s">
-        <v>1</v>
+        <v>2300</v>
       </c>
       <c r="C1193" t="s">
         <v>1</v>
       </c>
       <c r="D1193">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E1193" t="s">
         <v>2477</v>
@@ -26146,18 +26143,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>908</v>
+        <v>61</v>
       </c>
       <c r="B1198" t="s">
-        <v>1</v>
+        <v>1984</v>
       </c>
       <c r="C1198" t="s">
         <v>1</v>
       </c>
       <c r="D1198">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E1198" t="s">
         <v>2477</v>
@@ -26208,18 +26205,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>912</v>
+        <v>61</v>
       </c>
       <c r="B1202" t="s">
-        <v>1</v>
+        <v>2083</v>
       </c>
       <c r="C1202" t="s">
         <v>1</v>
       </c>
       <c r="D1202">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E1202" t="s">
         <v>2477</v>
@@ -26281,18 +26278,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>917</v>
+        <v>61</v>
       </c>
       <c r="B1207" t="s">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="C1207" t="s">
         <v>1</v>
       </c>
       <c r="D1207">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E1207" t="s">
         <v>2477</v>
@@ -27165,7 +27162,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
         <v>957</v>
       </c>
@@ -27179,7 +27176,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
         <v>958</v>
       </c>
@@ -27193,7 +27190,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
         <v>959</v>
       </c>
@@ -27207,7 +27204,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
         <v>960</v>
       </c>
@@ -27221,7 +27218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
         <v>961</v>
       </c>
@@ -27235,7 +27232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
         <v>86</v>
       </c>
@@ -27252,7 +27249,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
         <v>220</v>
       </c>
@@ -27266,7 +27263,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
         <v>478</v>
       </c>
@@ -27283,7 +27280,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
         <v>234</v>
       </c>
@@ -27300,7 +27297,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
         <v>224</v>
       </c>
@@ -27314,7 +27311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
         <v>30</v>
       </c>
@@ -27331,7 +27328,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
         <v>25</v>
       </c>
@@ -27348,7 +27345,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
         <v>28</v>
       </c>
@@ -27362,7 +27359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="1278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
         <v>114</v>
       </c>
@@ -27379,7 +27376,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
         <v>16</v>
       </c>
@@ -27396,35 +27393,38 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B1280" t="s">
-        <v>2013</v>
+        <v>2262</v>
       </c>
       <c r="C1280" t="s">
         <v>1</v>
       </c>
       <c r="D1280">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E1280" t="s">
         <v>2477</v>
       </c>
-    </row>
-    <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1280" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>19</v>
+        <v>1666</v>
       </c>
       <c r="B1281" t="s">
-        <v>2100</v>
+        <v>1</v>
       </c>
       <c r="C1281" t="s">
         <v>1</v>
       </c>
       <c r="D1281">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E1281" t="s">
         <v>2477</v>
@@ -27813,18 +27813,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
-        <v>88</v>
+        <v>1505</v>
       </c>
       <c r="B1307" t="s">
-        <v>2158</v>
+        <v>1</v>
       </c>
       <c r="C1307" t="s">
         <v>1</v>
       </c>
       <c r="D1307">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E1307" t="s">
         <v>2477</v>
@@ -28395,9 +28395,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
-        <v>1009</v>
+        <v>480</v>
       </c>
       <c r="B1346" t="s">
         <v>1</v>
@@ -28406,7 +28406,7 @@
         <v>1</v>
       </c>
       <c r="D1346">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="E1346" t="s">
         <v>2477</v>
@@ -28471,9 +28471,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
-        <v>1014</v>
+        <v>740</v>
       </c>
       <c r="B1351" t="s">
         <v>1</v>
@@ -28482,7 +28482,7 @@
         <v>1</v>
       </c>
       <c r="D1351">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E1351" t="s">
         <v>2477</v>
@@ -29095,7 +29095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
         <v>1044</v>
       </c>
@@ -29109,7 +29109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
         <v>1045</v>
       </c>
@@ -29123,7 +29123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
         <v>1046</v>
       </c>
@@ -29137,7 +29137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
         <v>1047</v>
       </c>
@@ -29151,7 +29151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
         <v>1048</v>
       </c>
@@ -29165,9 +29165,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>1049</v>
+        <v>1325</v>
       </c>
       <c r="B1398" t="s">
         <v>1</v>
@@ -29176,13 +29176,13 @@
         <v>1</v>
       </c>
       <c r="D1398">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1398" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
         <v>24</v>
       </c>
@@ -29196,24 +29196,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>377</v>
+        <v>860</v>
       </c>
       <c r="B1400" t="s">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="C1400" t="s">
         <v>1</v>
       </c>
       <c r="D1400">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E1400" t="s">
         <v>2477</v>
       </c>
-    </row>
-    <row r="1401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F1400" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
         <v>77</v>
       </c>
@@ -29227,7 +29230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
         <v>691</v>
       </c>
@@ -29244,7 +29247,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
         <v>4</v>
       </c>
@@ -29258,7 +29261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
         <v>150</v>
       </c>
@@ -29272,7 +29275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
         <v>5</v>
       </c>
@@ -29286,7 +29289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
         <v>1048</v>
       </c>
@@ -29300,24 +29303,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>99</v>
+        <v>860</v>
       </c>
       <c r="B1407" t="s">
-        <v>1999</v>
+        <v>2176</v>
       </c>
       <c r="C1407" t="s">
         <v>1</v>
       </c>
       <c r="D1407">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1407" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
         <v>577</v>
       </c>
@@ -29446,9 +29449,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1417" t="s">
-        <v>1056</v>
+        <v>1255</v>
       </c>
       <c r="B1417" t="s">
         <v>1</v>
@@ -29457,7 +29460,7 @@
         <v>1</v>
       </c>
       <c r="D1417">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1417" t="s">
         <v>2477</v>
@@ -29477,18 +29480,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1419" t="s">
-        <v>1058</v>
+        <v>4</v>
       </c>
       <c r="B1419" t="s">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C1419" t="s">
         <v>1</v>
       </c>
       <c r="D1419">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1419" t="s">
         <v>2477</v>
@@ -29818,18 +29821,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1441" t="s">
-        <v>860</v>
+        <v>22</v>
       </c>
       <c r="B1441" t="s">
-        <v>2176</v>
+        <v>2007</v>
       </c>
       <c r="C1441" t="s">
         <v>1</v>
       </c>
       <c r="D1441">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E1441" t="s">
         <v>2477</v>
@@ -30352,18 +30355,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1477" t="s">
-        <v>1099</v>
+        <v>41</v>
       </c>
       <c r="B1477" t="s">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C1477" t="s">
         <v>1</v>
       </c>
       <c r="D1477">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1477" t="s">
         <v>2477</v>
@@ -30400,18 +30403,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1480" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1480" t="s">
-        <v>2102</v>
+        <v>2338</v>
       </c>
       <c r="C1480" t="s">
         <v>1</v>
       </c>
       <c r="D1480">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1480" t="s">
         <v>2477</v>
@@ -30527,18 +30530,18 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1488" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="B1488" t="s">
-        <v>2164</v>
+        <v>2050</v>
       </c>
       <c r="C1488" t="s">
         <v>1</v>
       </c>
       <c r="D1488">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E1488" t="s">
         <v>2477</v>
@@ -30949,18 +30952,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1516" t="s">
-        <v>2188</v>
+        <v>2028</v>
       </c>
       <c r="C1516" t="s">
         <v>1</v>
       </c>
       <c r="D1516">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1516" t="s">
         <v>2477</v>
@@ -31338,18 +31341,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1541" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>1123</v>
+        <v>0</v>
       </c>
       <c r="B1541" t="s">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C1541" t="s">
         <v>1</v>
       </c>
       <c r="D1541">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E1541" t="s">
         <v>2477</v>
@@ -31873,18 +31876,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1576" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B1576" t="s">
-        <v>2102</v>
+        <v>2312</v>
       </c>
       <c r="C1576" t="s">
         <v>1</v>
       </c>
       <c r="D1576">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E1576" t="s">
         <v>2477</v>
@@ -32115,18 +32118,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1592" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="B1592" t="s">
-        <v>2211</v>
+        <v>2308</v>
       </c>
       <c r="C1592" t="s">
         <v>1</v>
       </c>
       <c r="D1592">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1592" t="s">
         <v>2477</v>
@@ -32149,35 +32152,35 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="1594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1594" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1594" t="s">
-        <v>2212</v>
+        <v>2188</v>
       </c>
       <c r="C1594" t="s">
         <v>1</v>
       </c>
       <c r="D1594">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1594" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1595" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="B1595" t="s">
-        <v>2213</v>
+        <v>2311</v>
       </c>
       <c r="C1595" t="s">
         <v>1</v>
       </c>
       <c r="D1595">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1595" t="s">
         <v>2477</v>
@@ -32214,18 +32217,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
       <c r="B1598" t="s">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="C1598" t="s">
         <v>1</v>
       </c>
       <c r="D1598">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E1598" t="s">
         <v>2477</v>
@@ -32259,7 +32262,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="1601" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1601" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
         <v>1150</v>
       </c>
@@ -32273,7 +32276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1602" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1602" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
         <v>1151</v>
       </c>
@@ -32287,7 +32290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1603" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1603" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
         <v>1152</v>
       </c>
@@ -32301,7 +32304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1604" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1604" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
         <v>1153</v>
       </c>
@@ -32315,7 +32318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1605" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1605" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
         <v>1154</v>
       </c>
@@ -32329,7 +32332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1606" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1606" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
         <v>1155</v>
       </c>
@@ -32346,7 +32349,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1607" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1607" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
         <v>1156</v>
       </c>
@@ -32360,7 +32363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1608" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1608" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
         <v>1157</v>
       </c>
@@ -32374,7 +32377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1609" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1609" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
         <v>1158</v>
       </c>
@@ -32391,7 +32394,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1610" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1610" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
         <v>1159</v>
       </c>
@@ -32405,9 +32408,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1611" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>1160</v>
+        <v>1259</v>
       </c>
       <c r="B1611" t="s">
         <v>1</v>
@@ -32416,13 +32419,16 @@
         <v>1</v>
       </c>
       <c r="D1611">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1611" t="s">
         <v>2477</v>
       </c>
-    </row>
-    <row r="1612" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F1611" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
         <v>1161</v>
       </c>
@@ -32436,7 +32442,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1613" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1613" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
         <v>1162</v>
       </c>
@@ -32453,7 +32459,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="1614" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1614" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
         <v>1163</v>
       </c>
@@ -32470,7 +32476,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="1615" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1615" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
         <v>1164</v>
       </c>
@@ -32484,7 +32490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1616" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1616" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
         <v>1165</v>
       </c>
@@ -32515,9 +32521,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1618" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
-        <v>1167</v>
+        <v>1500</v>
       </c>
       <c r="B1618" t="s">
         <v>1</v>
@@ -32526,7 +32532,7 @@
         <v>1</v>
       </c>
       <c r="D1618">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E1618" t="s">
         <v>2477</v>
@@ -32591,18 +32597,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1623" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
-        <v>1172</v>
+        <v>1242</v>
       </c>
       <c r="B1623" t="s">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="C1623" t="s">
         <v>1</v>
       </c>
       <c r="D1623">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1623" t="s">
         <v>2477</v>
@@ -32935,18 +32941,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1645" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="B1645" t="s">
-        <v>2219</v>
+        <v>1</v>
       </c>
       <c r="C1645" t="s">
         <v>1</v>
       </c>
       <c r="D1645">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="E1645" t="s">
         <v>2477</v>
@@ -33042,18 +33048,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1652" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="B1652" t="s">
-        <v>2030</v>
+        <v>2313</v>
       </c>
       <c r="C1652" t="s">
         <v>1</v>
       </c>
       <c r="D1652">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1652" t="s">
         <v>2477</v>
@@ -33582,9 +33588,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1688" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1688" t="s">
-        <v>1203</v>
+        <v>903</v>
       </c>
       <c r="B1688" t="s">
         <v>1</v>
@@ -33593,7 +33599,7 @@
         <v>1</v>
       </c>
       <c r="D1688">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E1688" t="s">
         <v>2477</v>
@@ -33661,9 +33667,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1693" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
-        <v>1208</v>
+        <v>195</v>
       </c>
       <c r="B1693" t="s">
         <v>1</v>
@@ -33672,7 +33678,7 @@
         <v>1</v>
       </c>
       <c r="D1693">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="E1693" t="s">
         <v>2477</v>
@@ -33977,18 +33983,18 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1713" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="B1713" t="s">
-        <v>2050</v>
+        <v>2091</v>
       </c>
       <c r="C1713" t="s">
         <v>1</v>
       </c>
       <c r="D1713">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E1713" t="s">
         <v>2477</v>
@@ -34050,18 +34056,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1718" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
-        <v>1204</v>
+        <v>195</v>
       </c>
       <c r="B1718" t="s">
-        <v>2083</v>
+        <v>2100</v>
       </c>
       <c r="C1718" t="s">
         <v>1</v>
       </c>
       <c r="D1718">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E1718" t="s">
         <v>2477</v>
@@ -34434,7 +34440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1745" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1745" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1745" t="s">
         <v>5</v>
       </c>
@@ -34448,7 +34454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1746" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1746" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1746" t="s">
         <v>92</v>
       </c>
@@ -34462,7 +34468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1747" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1747" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1747" t="s">
         <v>244</v>
       </c>
@@ -34476,7 +34482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1748" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1748" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1748" t="s">
         <v>91</v>
       </c>
@@ -34490,7 +34496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1749" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1749" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1749" t="s">
         <v>109</v>
       </c>
@@ -34507,7 +34513,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1750" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1750" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1750" t="s">
         <v>650</v>
       </c>
@@ -34524,7 +34530,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1751" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1751" t="s">
         <v>1206</v>
       </c>
@@ -34541,7 +34547,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1752" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1752" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1752" t="s">
         <v>1044</v>
       </c>
@@ -34555,7 +34561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1753" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1753" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1753" t="s">
         <v>44</v>
       </c>
@@ -34572,7 +34578,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1754" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1754" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1754" t="s">
         <v>11</v>
       </c>
@@ -34589,7 +34595,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1755" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1755" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1755" t="s">
         <v>403</v>
       </c>
@@ -34603,7 +34609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1756" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1756" t="s">
         <v>746</v>
       </c>
@@ -34617,7 +34623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1757" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1757" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1757" t="s">
         <v>12</v>
       </c>
@@ -34634,7 +34640,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1758" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1758" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1758" t="s">
         <v>423</v>
       </c>
@@ -34651,27 +34657,24 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1759" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1759" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1759" t="s">
-        <v>61</v>
+        <v>1304</v>
       </c>
       <c r="B1759" t="s">
-        <v>2262</v>
+        <v>1</v>
       </c>
       <c r="C1759" t="s">
         <v>1</v>
       </c>
       <c r="D1759">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1759" t="s">
         <v>2477</v>
       </c>
-      <c r="F1759" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="1760" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1760" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1760" t="s">
         <v>0</v>
       </c>
@@ -34705,35 +34708,35 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
-        <v>15</v>
+        <v>1172</v>
       </c>
       <c r="B1762" t="s">
-        <v>2264</v>
+        <v>1</v>
       </c>
       <c r="C1762" t="s">
         <v>1</v>
       </c>
       <c r="D1762">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1762" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1763" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
-        <v>36</v>
+        <v>1676</v>
       </c>
       <c r="B1763" t="s">
-        <v>2265</v>
+        <v>1</v>
       </c>
       <c r="C1763" t="s">
         <v>1</v>
       </c>
       <c r="D1763">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1763" t="s">
         <v>2477</v>
@@ -34925,18 +34928,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1776" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1776" t="s">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="B1776" t="s">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="C1776" t="s">
         <v>1</v>
       </c>
       <c r="D1776">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="E1776" t="s">
         <v>2477</v>
@@ -35040,9 +35043,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1784" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
-        <v>1225</v>
+        <v>1689</v>
       </c>
       <c r="B1784" t="s">
         <v>1</v>
@@ -35051,7 +35054,7 @@
         <v>1</v>
       </c>
       <c r="D1784">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1784" t="s">
         <v>2477</v>
@@ -35074,9 +35077,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1786" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
-        <v>1227</v>
+        <v>1517</v>
       </c>
       <c r="B1786" t="s">
         <v>1</v>
@@ -35085,7 +35088,7 @@
         <v>1</v>
       </c>
       <c r="D1786">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1786" t="s">
         <v>2477</v>
@@ -35268,7 +35271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1799" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
         <v>1240</v>
       </c>
@@ -35285,7 +35288,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="1800" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1800" t="s">
         <v>1241</v>
       </c>
@@ -35302,7 +35305,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="1801" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1801" t="s">
         <v>1242</v>
       </c>
@@ -35319,9 +35322,9 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="1802" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1802" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1802" t="s">
-        <v>1243</v>
+        <v>1679</v>
       </c>
       <c r="B1802" t="s">
         <v>1</v>
@@ -35330,15 +35333,15 @@
         <v>1</v>
       </c>
       <c r="D1802">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1802" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1803" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
-        <v>1244</v>
+        <v>1775</v>
       </c>
       <c r="B1803" t="s">
         <v>1</v>
@@ -35347,15 +35350,15 @@
         <v>1</v>
       </c>
       <c r="D1803">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1803" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1804" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1804" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
-        <v>1245</v>
+        <v>1504</v>
       </c>
       <c r="B1804" t="s">
         <v>1</v>
@@ -35364,15 +35367,15 @@
         <v>1</v>
       </c>
       <c r="D1804">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1804" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1805" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1805" t="s">
-        <v>1246</v>
+        <v>1854</v>
       </c>
       <c r="B1805" t="s">
         <v>1</v>
@@ -35381,18 +35384,18 @@
         <v>1</v>
       </c>
       <c r="D1805">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1805" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1806" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1806" t="s">
-        <v>1247</v>
+        <v>282</v>
       </c>
       <c r="B1806" t="s">
-        <v>1</v>
+        <v>2325</v>
       </c>
       <c r="C1806" t="s">
         <v>1</v>
@@ -35404,26 +35407,26 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="1807" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1807" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
-        <v>1248</v>
+        <v>11</v>
       </c>
       <c r="B1807" t="s">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C1807" t="s">
         <v>1</v>
       </c>
       <c r="D1807">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1807" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1808" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1808" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1808" t="s">
-        <v>1249</v>
+        <v>400</v>
       </c>
       <c r="B1808" t="s">
         <v>1</v>
@@ -35432,15 +35435,15 @@
         <v>1</v>
       </c>
       <c r="D1808">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E1808" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1809" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1809" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1809" t="s">
-        <v>1250</v>
+        <v>917</v>
       </c>
       <c r="B1809" t="s">
         <v>1</v>
@@ -35449,13 +35452,13 @@
         <v>1</v>
       </c>
       <c r="D1809">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E1809" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1810" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1810" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
         <v>1251</v>
       </c>
@@ -35472,7 +35475,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1811" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1811" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1811" t="s">
         <v>1252</v>
       </c>
@@ -35489,7 +35492,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1812" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1812" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
         <v>1253</v>
       </c>
@@ -35503,7 +35506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1813" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1813" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
         <v>1254</v>
       </c>
@@ -35517,12 +35520,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1814" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1814" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="B1814" t="s">
-        <v>1</v>
+        <v>2016</v>
       </c>
       <c r="C1814" t="s">
         <v>1</v>
@@ -35534,7 +35537,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="1815" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1815" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
         <v>1256</v>
       </c>
@@ -35548,7 +35551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1816" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1816" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
         <v>1257</v>
       </c>
@@ -35562,7 +35565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1817" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1817" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1817" t="s">
         <v>1258</v>
       </c>
@@ -35576,9 +35579,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1818" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
-        <v>1259</v>
+        <v>104</v>
       </c>
       <c r="B1818" t="s">
         <v>1</v>
@@ -35587,16 +35590,13 @@
         <v>1</v>
       </c>
       <c r="D1818">
-        <v>27</v>
+        <v>312</v>
       </c>
       <c r="E1818" t="s">
         <v>2477</v>
       </c>
-      <c r="F1818" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1819" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
         <v>1260</v>
       </c>
@@ -35613,7 +35613,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1820" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1820" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
         <v>1261</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1821" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1821" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1821" t="s">
         <v>1262</v>
       </c>
@@ -35644,24 +35644,24 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1822" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1822" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1822" t="s">
-        <v>1263</v>
+        <v>104</v>
       </c>
       <c r="B1822" t="s">
-        <v>1</v>
+        <v>2312</v>
       </c>
       <c r="C1822" t="s">
         <v>1</v>
       </c>
       <c r="D1822">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1822" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1823" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1823" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1823" t="s">
         <v>1264</v>
       </c>
@@ -35675,7 +35675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1824" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1824" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
         <v>1265</v>
       </c>
@@ -35858,18 +35858,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1836" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1836" t="s">
-        <v>99</v>
+        <v>784</v>
       </c>
       <c r="B1836" t="s">
-        <v>2158</v>
+        <v>1</v>
       </c>
       <c r="C1836" t="s">
         <v>1</v>
       </c>
       <c r="D1836">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E1836" t="s">
         <v>2477</v>
@@ -35931,18 +35931,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1841" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1841" t="s">
-        <v>19</v>
+        <v>717</v>
       </c>
       <c r="B1841" t="s">
-        <v>2038</v>
+        <v>1</v>
       </c>
       <c r="C1841" t="s">
         <v>1</v>
       </c>
       <c r="D1841">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E1841" t="s">
         <v>2477</v>
@@ -36365,18 +36365,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1869" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1869" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1869" t="s">
-        <v>912</v>
+        <v>1747</v>
       </c>
       <c r="B1869" t="s">
-        <v>2025</v>
+        <v>1</v>
       </c>
       <c r="C1869" t="s">
         <v>1</v>
       </c>
       <c r="D1869">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1869" t="s">
         <v>2477</v>
@@ -36545,18 +36545,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1881" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1881" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1881" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="B1881" t="s">
-        <v>2300</v>
+        <v>1</v>
       </c>
       <c r="C1881" t="s">
         <v>1</v>
       </c>
       <c r="D1881">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="E1881" t="s">
         <v>2477</v>
@@ -36576,69 +36576,69 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1883" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1883" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1883" t="s">
-        <v>1091</v>
+        <v>205</v>
       </c>
       <c r="B1883" t="s">
-        <v>2302</v>
+        <v>2164</v>
       </c>
       <c r="C1883" t="s">
         <v>1</v>
       </c>
       <c r="D1883">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1883" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1884" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1884" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1884" t="s">
-        <v>867</v>
+        <v>1565</v>
       </c>
       <c r="B1884" t="s">
-        <v>2303</v>
+        <v>1</v>
       </c>
       <c r="C1884" t="s">
         <v>1</v>
       </c>
       <c r="D1884">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E1884" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1885" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1885" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
-        <v>437</v>
+        <v>1311</v>
       </c>
       <c r="B1885" t="s">
-        <v>2304</v>
+        <v>1</v>
       </c>
       <c r="C1885" t="s">
         <v>1</v>
       </c>
       <c r="D1885">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1885" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1886" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1886" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1886" t="s">
-        <v>276</v>
+        <v>1872</v>
       </c>
       <c r="B1886" t="s">
-        <v>2305</v>
+        <v>1</v>
       </c>
       <c r="C1886" t="s">
         <v>1</v>
       </c>
       <c r="D1886">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1886" t="s">
         <v>2477</v>
@@ -36661,18 +36661,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1888" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1888" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1888" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B1888" t="s">
-        <v>1986</v>
+        <v>2188</v>
       </c>
       <c r="C1888" t="s">
         <v>1</v>
       </c>
       <c r="D1888">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1888" t="s">
         <v>2477</v>
@@ -36695,29 +36695,29 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1890" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1890" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1890" t="s">
-        <v>895</v>
+        <v>43</v>
       </c>
       <c r="B1890" t="s">
-        <v>2102</v>
+        <v>2212</v>
       </c>
       <c r="C1890" t="s">
         <v>1</v>
       </c>
       <c r="D1890">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1890" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1891" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1891" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1891" t="s">
-        <v>1208</v>
+        <v>501</v>
       </c>
       <c r="B1891" t="s">
-        <v>2307</v>
+        <v>2331</v>
       </c>
       <c r="C1891" t="s">
         <v>1</v>
@@ -36729,35 +36729,35 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="1892" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1892" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1892" t="s">
-        <v>0</v>
+        <v>1526</v>
       </c>
       <c r="B1892" t="s">
-        <v>2308</v>
+        <v>1</v>
       </c>
       <c r="C1892" t="s">
         <v>1</v>
       </c>
       <c r="D1892">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1892" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1893" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1893" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1893" t="s">
-        <v>1241</v>
+        <v>1853</v>
       </c>
       <c r="B1893" t="s">
-        <v>2016</v>
+        <v>1</v>
       </c>
       <c r="C1893" t="s">
         <v>1</v>
       </c>
       <c r="D1893">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E1893" t="s">
         <v>2477</v>
@@ -36780,18 +36780,18 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1895" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1895" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1895" t="s">
-        <v>1242</v>
+        <v>1099</v>
       </c>
       <c r="B1895" t="s">
-        <v>1986</v>
+        <v>1</v>
       </c>
       <c r="C1895" t="s">
         <v>1</v>
       </c>
       <c r="D1895">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1895" t="s">
         <v>2477</v>
@@ -36828,154 +36828,154 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1898" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1898" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1898" t="s">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="B1898" t="s">
-        <v>2311</v>
+        <v>1</v>
       </c>
       <c r="C1898" t="s">
         <v>1</v>
       </c>
       <c r="D1898">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E1898" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1899" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1899" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1899" t="s">
-        <v>1243</v>
+        <v>1009</v>
       </c>
       <c r="B1899" t="s">
-        <v>2312</v>
+        <v>1</v>
       </c>
       <c r="C1899" t="s">
         <v>1</v>
       </c>
       <c r="D1899">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E1899" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1900" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1900" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1900" t="s">
-        <v>185</v>
+        <v>832</v>
       </c>
       <c r="B1900" t="s">
-        <v>2313</v>
+        <v>1</v>
       </c>
       <c r="C1900" t="s">
         <v>1</v>
       </c>
       <c r="D1900">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E1900" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1901" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1901" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1901" t="s">
-        <v>1244</v>
+        <v>659</v>
       </c>
       <c r="B1901" t="s">
-        <v>2314</v>
+        <v>1</v>
       </c>
       <c r="C1901" t="s">
         <v>1</v>
       </c>
       <c r="D1901">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E1901" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1902" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1902" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
-        <v>1245</v>
+        <v>659</v>
       </c>
       <c r="B1902" t="s">
-        <v>2315</v>
+        <v>2075</v>
       </c>
       <c r="C1902" t="s">
         <v>1</v>
       </c>
       <c r="D1902">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1902" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1903" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1903" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
-        <v>1246</v>
+        <v>1760</v>
       </c>
       <c r="B1903" t="s">
-        <v>2316</v>
+        <v>1</v>
       </c>
       <c r="C1903" t="s">
         <v>1</v>
       </c>
       <c r="D1903">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1903" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1904" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1904" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1904" t="s">
-        <v>1247</v>
+        <v>670</v>
       </c>
       <c r="B1904" t="s">
-        <v>1984</v>
+        <v>1</v>
       </c>
       <c r="C1904" t="s">
         <v>1</v>
       </c>
       <c r="D1904">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E1904" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1905" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1905" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1905" t="s">
-        <v>389</v>
+        <v>585</v>
       </c>
       <c r="B1905" t="s">
-        <v>2317</v>
+        <v>1</v>
       </c>
       <c r="C1905" t="s">
         <v>1</v>
       </c>
       <c r="D1905">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="E1905" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1906" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1906" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1906" t="s">
-        <v>222</v>
+        <v>585</v>
       </c>
       <c r="B1906" t="s">
-        <v>2318</v>
+        <v>2020</v>
       </c>
       <c r="C1906" t="s">
         <v>1</v>
       </c>
       <c r="D1906">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1906" t="s">
         <v>2477</v>
@@ -37029,35 +37029,35 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="1910" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1910" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1910" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="B1910" t="s">
-        <v>2321</v>
+        <v>1</v>
       </c>
       <c r="C1910" t="s">
         <v>1</v>
       </c>
       <c r="D1910">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E1910" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1911" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1911" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1911" t="s">
-        <v>726</v>
+        <v>426</v>
       </c>
       <c r="B1911" t="s">
-        <v>2013</v>
+        <v>1</v>
       </c>
       <c r="C1911" t="s">
         <v>1</v>
       </c>
       <c r="D1911">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="E1911" t="s">
         <v>2477</v>
@@ -37187,46 +37187,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1920" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1920" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1920" t="s">
-        <v>282</v>
+        <v>426</v>
       </c>
       <c r="B1920" t="s">
-        <v>2325</v>
+        <v>2455</v>
       </c>
       <c r="C1920" t="s">
         <v>1</v>
       </c>
       <c r="D1920">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1920" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1921" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1921" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1921" t="s">
-        <v>908</v>
+        <v>138</v>
       </c>
       <c r="B1921" t="s">
-        <v>2326</v>
+        <v>1</v>
       </c>
       <c r="C1921" t="s">
         <v>1</v>
       </c>
       <c r="D1921">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="E1921" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1922" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1922" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
-        <v>1248</v>
+        <v>437</v>
       </c>
       <c r="B1922" t="s">
-        <v>2327</v>
+        <v>2304</v>
       </c>
       <c r="C1922" t="s">
         <v>1</v>
@@ -37238,69 +37238,69 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="1923" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1923" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
-        <v>1249</v>
+        <v>24</v>
       </c>
       <c r="B1923" t="s">
-        <v>2328</v>
+        <v>2219</v>
       </c>
       <c r="C1923" t="s">
         <v>1</v>
       </c>
       <c r="D1923">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1923" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1924" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1924" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1924" t="s">
-        <v>758</v>
+        <v>1622</v>
       </c>
       <c r="B1924" t="s">
-        <v>2125</v>
+        <v>1</v>
       </c>
       <c r="C1924" t="s">
         <v>1</v>
       </c>
       <c r="D1924">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E1924" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1925" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1925" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1925" t="s">
-        <v>102</v>
+        <v>1740</v>
       </c>
       <c r="B1925" t="s">
-        <v>2329</v>
+        <v>1</v>
       </c>
       <c r="C1925" t="s">
         <v>1</v>
       </c>
       <c r="D1925">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E1925" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1926" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1926" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1926" t="s">
-        <v>1250</v>
+        <v>762</v>
       </c>
       <c r="B1926" t="s">
-        <v>1993</v>
+        <v>1</v>
       </c>
       <c r="C1926" t="s">
         <v>1</v>
       </c>
       <c r="D1926">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E1926" t="s">
         <v>2477</v>
@@ -37320,18 +37320,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1928" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1928" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1928" t="s">
-        <v>501</v>
+        <v>1458</v>
       </c>
       <c r="B1928" t="s">
-        <v>2331</v>
+        <v>1</v>
       </c>
       <c r="C1928" t="s">
         <v>1</v>
       </c>
       <c r="D1928">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1928" t="s">
         <v>2477</v>
@@ -37393,7 +37393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1933" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1933" t="s">
         <v>1266</v>
       </c>
@@ -37441,9 +37441,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1936" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1936" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1936" t="s">
-        <v>1269</v>
+        <v>868</v>
       </c>
       <c r="B1936" t="s">
         <v>1</v>
@@ -37452,7 +37452,7 @@
         <v>1</v>
       </c>
       <c r="D1936">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E1936" t="s">
         <v>2477</v>
@@ -37579,9 +37579,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="1945" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1945" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1945" t="s">
-        <v>1278</v>
+        <v>1456</v>
       </c>
       <c r="B1945" t="s">
         <v>1</v>
@@ -37590,7 +37590,7 @@
         <v>1</v>
       </c>
       <c r="D1945">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E1945" t="s">
         <v>2477</v>
@@ -37610,9 +37610,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1947" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1947" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1947" t="s">
-        <v>1280</v>
+        <v>463</v>
       </c>
       <c r="B1947" t="s">
         <v>1</v>
@@ -37621,7 +37621,7 @@
         <v>1</v>
       </c>
       <c r="D1947">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E1947" t="s">
         <v>2477</v>
@@ -37953,7 +37953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1970" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1970" t="s">
         <v>1303</v>
       </c>
@@ -37970,18 +37970,18 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="1971" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1971" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1971" t="s">
-        <v>1304</v>
+        <v>463</v>
       </c>
       <c r="B1971" t="s">
-        <v>1</v>
+        <v>2358</v>
       </c>
       <c r="C1971" t="s">
         <v>1</v>
       </c>
       <c r="D1971">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1971" t="s">
         <v>2477</v>
@@ -38032,18 +38032,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1975" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1975" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1975" t="s">
-        <v>1272</v>
+        <v>758</v>
       </c>
       <c r="B1975" t="s">
-        <v>2335</v>
+        <v>2125</v>
       </c>
       <c r="C1975" t="s">
         <v>1</v>
       </c>
       <c r="D1975">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1975" t="s">
         <v>2477</v>
@@ -38153,35 +38153,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1983" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1983" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1983" t="s">
-        <v>0</v>
+        <v>1587</v>
       </c>
       <c r="B1983" t="s">
-        <v>2338</v>
+        <v>1</v>
       </c>
       <c r="C1983" t="s">
         <v>1</v>
       </c>
       <c r="D1983">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E1983" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="1984" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1984" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1984" t="s">
-        <v>12</v>
+        <v>1248</v>
       </c>
       <c r="B1984" t="s">
-        <v>1999</v>
+        <v>1</v>
       </c>
       <c r="C1984" t="s">
         <v>1</v>
       </c>
       <c r="D1984">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1984" t="s">
         <v>2477</v>
@@ -38215,18 +38215,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1987" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1987" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1987" t="s">
-        <v>585</v>
+        <v>1248</v>
       </c>
       <c r="B1987" t="s">
-        <v>2020</v>
+        <v>2327</v>
       </c>
       <c r="C1987" t="s">
         <v>1</v>
       </c>
       <c r="D1987">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1987" t="s">
         <v>2477</v>
@@ -38350,18 +38350,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1996" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1996" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1996" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="B1996" t="s">
-        <v>2343</v>
+        <v>1</v>
       </c>
       <c r="C1996" t="s">
         <v>1</v>
       </c>
       <c r="D1996">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E1996" t="s">
         <v>2477</v>
@@ -38477,18 +38477,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2004" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2004" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2004" t="s">
-        <v>1311</v>
+        <v>377</v>
       </c>
       <c r="B2004" t="s">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C2004" t="s">
         <v>1</v>
       </c>
       <c r="D2004">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E2004" t="s">
         <v>2477</v>
@@ -38615,9 +38615,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2013" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2013" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2013" t="s">
-        <v>1320</v>
+        <v>1014</v>
       </c>
       <c r="B2013" t="s">
         <v>1</v>
@@ -38626,7 +38626,7 @@
         <v>1</v>
       </c>
       <c r="D2013">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E2013" t="s">
         <v>2477</v>
@@ -38691,9 +38691,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2018" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2018" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2018" t="s">
-        <v>1325</v>
+        <v>1269</v>
       </c>
       <c r="B2018" t="s">
         <v>1</v>
@@ -38702,7 +38702,7 @@
         <v>1</v>
       </c>
       <c r="D2018">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2018" t="s">
         <v>2477</v>
@@ -39334,9 +39334,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2062" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2062" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2062" t="s">
-        <v>1351</v>
+        <v>1167</v>
       </c>
       <c r="B2062" t="s">
         <v>1</v>
@@ -39345,7 +39345,7 @@
         <v>1</v>
       </c>
       <c r="D2062">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2062" t="s">
         <v>2477</v>
@@ -39561,9 +39561,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2078" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2078" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2078" t="s">
-        <v>1366</v>
+        <v>1123</v>
       </c>
       <c r="B2078" t="s">
         <v>1</v>
@@ -39572,7 +39572,7 @@
         <v>1</v>
       </c>
       <c r="D2078">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2078" t="s">
         <v>2477</v>
@@ -39891,18 +39891,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2099" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2099" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2099" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B2099" t="s">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="C2099" t="s">
         <v>1</v>
       </c>
       <c r="D2099">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="E2099" t="s">
         <v>2477</v>
@@ -39995,18 +39995,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2106" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B2106" t="s">
-        <v>2188</v>
+        <v>2050</v>
       </c>
       <c r="C2106" t="s">
         <v>1</v>
       </c>
       <c r="D2106">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E2106" t="s">
         <v>2477</v>
@@ -40102,9 +40102,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2113" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B2113" t="s">
         <v>2028</v>
@@ -40113,7 +40113,7 @@
         <v>1</v>
       </c>
       <c r="D2113">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E2113" t="s">
         <v>2477</v>
@@ -40226,7 +40226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
         <v>1381</v>
       </c>
@@ -40614,18 +40614,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2147" t="s">
-        <v>1406</v>
+        <v>88</v>
       </c>
       <c r="B2147" t="s">
-        <v>1</v>
+        <v>1984</v>
       </c>
       <c r="C2147" t="s">
         <v>1</v>
       </c>
       <c r="D2147">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2147" t="s">
         <v>2477</v>
@@ -40890,35 +40890,35 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2165" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B2165" t="s">
-        <v>2007</v>
+        <v>2158</v>
       </c>
       <c r="C2165" t="s">
         <v>1</v>
       </c>
       <c r="D2165">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E2165" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2166" t="s">
-        <v>463</v>
+        <v>1735</v>
       </c>
       <c r="B2166" t="s">
-        <v>2358</v>
+        <v>1</v>
       </c>
       <c r="C2166" t="s">
         <v>1</v>
       </c>
       <c r="D2166">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2166" t="s">
         <v>2477</v>
@@ -40997,18 +40997,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2172" t="s">
-        <v>195</v>
+        <v>1351</v>
       </c>
       <c r="B2172" t="s">
-        <v>2091</v>
+        <v>1</v>
       </c>
       <c r="C2172" t="s">
         <v>1</v>
       </c>
       <c r="D2172">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2172" t="s">
         <v>2477</v>
@@ -41028,18 +41028,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2174" t="s">
-        <v>61</v>
+        <v>1204</v>
       </c>
       <c r="B2174" t="s">
-        <v>1984</v>
+        <v>2083</v>
       </c>
       <c r="C2174" t="s">
         <v>1</v>
       </c>
       <c r="D2174">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2174" t="s">
         <v>2477</v>
@@ -41551,9 +41551,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2209" t="s">
-        <v>1439</v>
+        <v>851</v>
       </c>
       <c r="B2209" t="s">
         <v>1</v>
@@ -41562,7 +41562,7 @@
         <v>1</v>
       </c>
       <c r="D2209">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E2209" t="s">
         <v>2477</v>
@@ -42218,9 +42218,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2253" t="s">
-        <v>1456</v>
+        <v>1844</v>
       </c>
       <c r="B2253" t="s">
         <v>1</v>
@@ -42229,7 +42229,7 @@
         <v>1</v>
       </c>
       <c r="D2253">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E2253" t="s">
         <v>2477</v>
@@ -42252,9 +42252,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2255" t="s">
-        <v>1458</v>
+        <v>1160</v>
       </c>
       <c r="B2255" t="s">
         <v>1</v>
@@ -42263,7 +42263,7 @@
         <v>1</v>
       </c>
       <c r="D2255">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2255" t="s">
         <v>2477</v>
@@ -42300,9 +42300,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2258" t="s">
-        <v>1461</v>
+        <v>617</v>
       </c>
       <c r="B2258" t="s">
         <v>1</v>
@@ -42311,7 +42311,7 @@
         <v>1</v>
       </c>
       <c r="D2258">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E2258" t="s">
         <v>2477</v>
@@ -42334,9 +42334,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2260" t="s">
-        <v>1463</v>
+        <v>726</v>
       </c>
       <c r="B2260" t="s">
         <v>1</v>
@@ -42345,7 +42345,7 @@
         <v>1</v>
       </c>
       <c r="D2260">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="E2260" t="s">
         <v>2477</v>
@@ -42791,7 +42791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2292" t="s">
         <v>1495</v>
       </c>
@@ -43149,18 +43149,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2315" t="s">
-        <v>210</v>
+        <v>726</v>
       </c>
       <c r="B2315" t="s">
-        <v>2382</v>
+        <v>2406</v>
       </c>
       <c r="C2315" t="s">
         <v>1</v>
       </c>
       <c r="D2315">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2315" t="s">
         <v>2477</v>
@@ -43228,18 +43228,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2320" t="s">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="B2320" t="s">
-        <v>2050</v>
+        <v>2013</v>
       </c>
       <c r="C2320" t="s">
         <v>1</v>
       </c>
       <c r="D2320">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2320" t="s">
         <v>2477</v>
@@ -43442,9 +43442,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2334" t="s">
-        <v>1500</v>
+        <v>1249</v>
       </c>
       <c r="B2334" t="s">
         <v>1</v>
@@ -43453,7 +43453,7 @@
         <v>1</v>
       </c>
       <c r="D2334">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2334" t="s">
         <v>2477</v>
@@ -43507,26 +43507,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2338" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2338" t="s">
-        <v>1504</v>
+        <v>1249</v>
       </c>
       <c r="B2338" t="s">
-        <v>1</v>
+        <v>2328</v>
       </c>
       <c r="C2338" t="s">
         <v>1</v>
       </c>
       <c r="D2338">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2338" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2339" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2339" t="s">
-        <v>1505</v>
+        <v>1049</v>
       </c>
       <c r="B2339" t="s">
         <v>1</v>
@@ -43535,7 +43535,7 @@
         <v>1</v>
       </c>
       <c r="D2339">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E2339" t="s">
         <v>2477</v>
@@ -43704,9 +43704,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2351" t="s">
-        <v>1517</v>
+        <v>850</v>
       </c>
       <c r="B2351" t="s">
         <v>1</v>
@@ -43715,7 +43715,7 @@
         <v>1</v>
       </c>
       <c r="D2351">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2351" t="s">
         <v>2477</v>
@@ -43845,9 +43845,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2360" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2360" t="s">
-        <v>1526</v>
+        <v>1602</v>
       </c>
       <c r="B2360" t="s">
         <v>1</v>
@@ -43856,7 +43856,7 @@
         <v>1</v>
       </c>
       <c r="D2360">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2360" t="s">
         <v>2477</v>
@@ -44275,7 +44275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2389" t="s">
         <v>1555</v>
       </c>
@@ -44292,7 +44292,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="2390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2390" t="s">
         <v>1556</v>
       </c>
@@ -44478,18 +44478,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2402" t="s">
-        <v>88</v>
+        <v>1802</v>
       </c>
       <c r="B2402" t="s">
-        <v>1984</v>
+        <v>1</v>
       </c>
       <c r="C2402" t="s">
         <v>1</v>
       </c>
       <c r="D2402">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2402" t="s">
         <v>2477</v>
@@ -45024,9 +45024,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2438" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2438" t="s">
-        <v>1565</v>
+        <v>413</v>
       </c>
       <c r="B2438" t="s">
         <v>1</v>
@@ -45035,7 +45035,7 @@
         <v>1</v>
       </c>
       <c r="D2438">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E2438" t="s">
         <v>2477</v>
@@ -45330,9 +45330,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2459" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2459" t="s">
-        <v>1586</v>
+        <v>1320</v>
       </c>
       <c r="B2459" t="s">
         <v>1</v>
@@ -45341,15 +45341,15 @@
         <v>1</v>
       </c>
       <c r="D2459">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E2459" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2460" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2460" t="s">
-        <v>1587</v>
+        <v>441</v>
       </c>
       <c r="B2460" t="s">
         <v>1</v>
@@ -45358,7 +45358,7 @@
         <v>1</v>
       </c>
       <c r="D2460">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E2460" t="s">
         <v>2477</v>
@@ -45597,18 +45597,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2477" t="s">
-        <v>1602</v>
+        <v>441</v>
       </c>
       <c r="B2477" t="s">
-        <v>1</v>
+        <v>2343</v>
       </c>
       <c r="C2477" t="s">
         <v>1</v>
       </c>
       <c r="D2477">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2477" t="s">
         <v>2477</v>
@@ -45628,9 +45628,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2479" t="s">
-        <v>1604</v>
+        <v>1058</v>
       </c>
       <c r="B2479" t="s">
         <v>1</v>
@@ -45639,15 +45639,15 @@
         <v>1</v>
       </c>
       <c r="D2479">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E2479" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2480" t="s">
-        <v>1605</v>
+        <v>1693</v>
       </c>
       <c r="B2480" t="s">
         <v>1</v>
@@ -45656,7 +45656,7 @@
         <v>1</v>
       </c>
       <c r="D2480">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2480" t="s">
         <v>2477</v>
@@ -45724,18 +45724,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2485" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B2485" t="s">
-        <v>2164</v>
+        <v>2007</v>
       </c>
       <c r="C2485" t="s">
         <v>1</v>
       </c>
       <c r="D2485">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2485" t="s">
         <v>2477</v>
@@ -45792,35 +45792,35 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2489" t="s">
-        <v>0</v>
+        <v>1834</v>
       </c>
       <c r="B2489" t="s">
-        <v>2312</v>
+        <v>1</v>
       </c>
       <c r="C2489" t="s">
         <v>1</v>
       </c>
       <c r="D2489">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2489" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2490" t="s">
-        <v>726</v>
+        <v>1836</v>
       </c>
       <c r="B2490" t="s">
-        <v>2406</v>
+        <v>1</v>
       </c>
       <c r="C2490" t="s">
         <v>1</v>
       </c>
       <c r="D2490">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2490" t="s">
         <v>2477</v>
@@ -46345,35 +46345,35 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2524" t="s">
-        <v>61</v>
+        <v>596</v>
       </c>
       <c r="B2524" t="s">
-        <v>2416</v>
+        <v>1</v>
       </c>
       <c r="C2524" t="s">
         <v>1</v>
       </c>
       <c r="D2524">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E2524" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2525" t="s">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="B2525" t="s">
-        <v>1984</v>
+        <v>2469</v>
       </c>
       <c r="C2525" t="s">
         <v>1</v>
       </c>
       <c r="D2525">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2525" t="s">
         <v>2477</v>
@@ -46762,9 +46762,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2551" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2551" t="s">
-        <v>1622</v>
+        <v>1243</v>
       </c>
       <c r="B2551" t="s">
         <v>1</v>
@@ -46773,7 +46773,7 @@
         <v>1</v>
       </c>
       <c r="D2551">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2551" t="s">
         <v>2477</v>
@@ -46908,18 +46908,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2561" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2561" t="s">
-        <v>1631</v>
+        <v>1243</v>
       </c>
       <c r="B2561" t="s">
-        <v>1</v>
+        <v>2312</v>
       </c>
       <c r="C2561" t="s">
         <v>1</v>
       </c>
       <c r="D2561">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2561" t="s">
         <v>2477</v>
@@ -46998,7 +46998,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2567" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2567" t="s">
         <v>1637</v>
       </c>
@@ -47147,7 +47147,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2577" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2577" t="s">
         <v>1647</v>
       </c>
@@ -47299,18 +47299,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2587" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2587" t="s">
-        <v>1657</v>
+        <v>276</v>
       </c>
       <c r="B2587" t="s">
-        <v>1</v>
+        <v>2305</v>
       </c>
       <c r="C2587" t="s">
         <v>1</v>
       </c>
       <c r="D2587">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2587" t="s">
         <v>2477</v>
@@ -47434,9 +47434,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2596" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2596" t="s">
-        <v>1666</v>
+        <v>1605</v>
       </c>
       <c r="B2596" t="s">
         <v>1</v>
@@ -47445,7 +47445,7 @@
         <v>1</v>
       </c>
       <c r="D2596">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2596" t="s">
         <v>2477</v>
@@ -47468,7 +47468,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2598" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2598" t="s">
         <v>1668</v>
       </c>
@@ -48030,9 +48030,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2636" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2636" t="s">
-        <v>1670</v>
+        <v>1278</v>
       </c>
       <c r="B2636" t="s">
         <v>1</v>
@@ -48041,7 +48041,7 @@
         <v>1</v>
       </c>
       <c r="D2636">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E2636" t="s">
         <v>2477</v>
@@ -48137,9 +48137,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2643" t="s">
-        <v>1676</v>
+        <v>1263</v>
       </c>
       <c r="B2643" t="s">
         <v>1</v>
@@ -48148,7 +48148,7 @@
         <v>1</v>
       </c>
       <c r="D2643">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2643" t="s">
         <v>2477</v>
@@ -48182,9 +48182,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2646" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2646" t="s">
-        <v>1679</v>
+        <v>867</v>
       </c>
       <c r="B2646" t="s">
         <v>1</v>
@@ -48193,7 +48193,7 @@
         <v>1</v>
       </c>
       <c r="D2646">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E2646" t="s">
         <v>2477</v>
@@ -48283,18 +48283,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2653" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2653" t="s">
-        <v>1686</v>
+        <v>867</v>
       </c>
       <c r="B2653" t="s">
-        <v>1</v>
+        <v>2303</v>
       </c>
       <c r="C2653" t="s">
         <v>1</v>
       </c>
       <c r="D2653">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2653" t="s">
         <v>2477</v>
@@ -48334,9 +48334,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2656" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2656" t="s">
-        <v>1689</v>
+        <v>1244</v>
       </c>
       <c r="B2656" t="s">
         <v>1</v>
@@ -48345,7 +48345,7 @@
         <v>1</v>
       </c>
       <c r="D2656">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2656" t="s">
         <v>2477</v>
@@ -48396,18 +48396,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2660" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2660" t="s">
-        <v>1693</v>
+        <v>1244</v>
       </c>
       <c r="B2660" t="s">
-        <v>1</v>
+        <v>2314</v>
       </c>
       <c r="C2660" t="s">
         <v>1</v>
       </c>
       <c r="D2660">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2660" t="s">
         <v>2477</v>
@@ -48859,9 +48859,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2692" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2692" t="s">
-        <v>1725</v>
+        <v>1949</v>
       </c>
       <c r="B2692" t="s">
         <v>1</v>
@@ -48870,7 +48870,7 @@
         <v>1</v>
       </c>
       <c r="D2692">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2692" t="s">
         <v>2477</v>
@@ -49008,18 +49008,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2702" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2702" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2702" t="s">
-        <v>2188</v>
+        <v>2265</v>
       </c>
       <c r="C2702" t="s">
         <v>1</v>
       </c>
       <c r="D2702">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E2702" t="s">
         <v>2477</v>
@@ -49349,35 +49349,35 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2724" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2724" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="B2724" t="s">
-        <v>2007</v>
+        <v>1</v>
       </c>
       <c r="C2724" t="s">
         <v>1</v>
       </c>
       <c r="D2724">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E2724" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2725" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2725" t="s">
-        <v>0</v>
+        <v>1463</v>
       </c>
       <c r="B2725" t="s">
-        <v>2188</v>
+        <v>1</v>
       </c>
       <c r="C2725" t="s">
         <v>1</v>
       </c>
       <c r="D2725">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2725" t="s">
         <v>2477</v>
@@ -49653,18 +49653,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2744" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2744" t="s">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="B2744" t="s">
-        <v>2455</v>
+        <v>2050</v>
       </c>
       <c r="C2744" t="s">
         <v>1</v>
       </c>
       <c r="D2744">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E2744" t="s">
         <v>2477</v>
@@ -49729,24 +49729,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2749" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2749" t="s">
-        <v>1733</v>
+        <v>12</v>
       </c>
       <c r="B2749" t="s">
-        <v>1</v>
+        <v>2028</v>
       </c>
       <c r="C2749" t="s">
         <v>1</v>
       </c>
       <c r="D2749">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E2749" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2750" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2750" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2750" t="s">
         <v>1734</v>
       </c>
@@ -49763,18 +49763,18 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="2751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2751" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2751" t="s">
-        <v>1735</v>
+        <v>12</v>
       </c>
       <c r="B2751" t="s">
-        <v>1</v>
+        <v>2188</v>
       </c>
       <c r="C2751" t="s">
         <v>1</v>
       </c>
       <c r="D2751">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E2751" t="s">
         <v>2477</v>
@@ -49842,18 +49842,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2756" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2756" t="s">
-        <v>1740</v>
+        <v>12</v>
       </c>
       <c r="B2756" t="s">
-        <v>1</v>
+        <v>1999</v>
       </c>
       <c r="C2756" t="s">
         <v>1</v>
       </c>
       <c r="D2756">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2756" t="s">
         <v>2477</v>
@@ -49938,7 +49938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2762" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2762" t="s">
         <v>1746</v>
       </c>
@@ -49955,9 +49955,9 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="2763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2763" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2763" t="s">
-        <v>1747</v>
+        <v>759</v>
       </c>
       <c r="B2763" t="s">
         <v>1</v>
@@ -49966,7 +49966,7 @@
         <v>1</v>
       </c>
       <c r="D2763">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E2763" t="s">
         <v>2477</v>
@@ -49986,7 +49986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2765" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2765" t="s">
         <v>1749</v>
       </c>
@@ -50076,9 +50076,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2771" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2771" t="s">
-        <v>1755</v>
+        <v>1686</v>
       </c>
       <c r="B2771" t="s">
         <v>1</v>
@@ -50087,7 +50087,7 @@
         <v>1</v>
       </c>
       <c r="D2771">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2771" t="s">
         <v>2477</v>
@@ -50152,9 +50152,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2776" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2776" t="s">
-        <v>1760</v>
+        <v>1208</v>
       </c>
       <c r="B2776" t="s">
         <v>1</v>
@@ -50163,7 +50163,7 @@
         <v>1</v>
       </c>
       <c r="D2776">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E2776" t="s">
         <v>2477</v>
@@ -50365,18 +50365,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2791" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2791" t="s">
-        <v>1775</v>
+        <v>1208</v>
       </c>
       <c r="B2791" t="s">
-        <v>1</v>
+        <v>2307</v>
       </c>
       <c r="C2791" t="s">
         <v>1</v>
       </c>
       <c r="D2791">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2791" t="s">
         <v>2477</v>
@@ -50752,9 +50752,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2818" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2818" t="s">
-        <v>1802</v>
+        <v>572</v>
       </c>
       <c r="B2818" t="s">
         <v>1</v>
@@ -50763,10 +50763,10 @@
         <v>1</v>
       </c>
       <c r="D2818">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E2818" t="s">
-        <v>2477</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="2819" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -50853,18 +50853,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2825" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2825" t="s">
-        <v>1809</v>
+        <v>895</v>
       </c>
       <c r="B2825" t="s">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C2825" t="s">
         <v>1</v>
       </c>
       <c r="D2825">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2825" t="s">
         <v>2477</v>
@@ -51167,7 +51167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2847" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2847" t="s">
         <v>1831</v>
       </c>
@@ -51212,9 +51212,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2850" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2850" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2850" t="s">
-        <v>1834</v>
+        <v>1250</v>
       </c>
       <c r="B2850" t="s">
         <v>1</v>
@@ -51223,24 +51223,24 @@
         <v>1</v>
       </c>
       <c r="D2850">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2850" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2851" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2851" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2851" t="s">
-        <v>19</v>
+        <v>1250</v>
       </c>
       <c r="B2851" t="s">
-        <v>2102</v>
+        <v>1993</v>
       </c>
       <c r="C2851" t="s">
         <v>1</v>
       </c>
       <c r="D2851">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2851" t="s">
         <v>2477</v>
@@ -51359,18 +51359,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2859" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2859" t="s">
-        <v>659</v>
+        <v>389</v>
       </c>
       <c r="B2859" t="s">
-        <v>2075</v>
+        <v>2317</v>
       </c>
       <c r="C2859" t="s">
         <v>1</v>
       </c>
       <c r="D2859">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E2859" t="s">
         <v>2477</v>
@@ -51612,18 +51612,18 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2876" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2876" t="s">
-        <v>104</v>
+        <v>427</v>
       </c>
       <c r="B2876" t="s">
-        <v>2312</v>
+        <v>1</v>
       </c>
       <c r="C2876" t="s">
         <v>1</v>
       </c>
       <c r="D2876">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E2876" t="s">
         <v>2477</v>
@@ -51823,35 +51823,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2890" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2890" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2890" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B2890" t="s">
-        <v>2469</v>
+        <v>2213</v>
       </c>
       <c r="C2890" t="s">
         <v>1</v>
       </c>
       <c r="D2890">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E2890" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2891" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2891" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2891" t="s">
-        <v>19</v>
+        <v>1366</v>
       </c>
       <c r="B2891" t="s">
-        <v>2470</v>
+        <v>1</v>
       </c>
       <c r="C2891" t="s">
         <v>1</v>
       </c>
       <c r="D2891">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2891" t="s">
         <v>2477</v>
@@ -51871,9 +51871,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2893" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2893" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2893" t="s">
-        <v>1836</v>
+        <v>1755</v>
       </c>
       <c r="B2893" t="s">
         <v>1</v>
@@ -51882,7 +51882,7 @@
         <v>1</v>
       </c>
       <c r="D2893">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2893" t="s">
         <v>2477</v>
@@ -51902,9 +51902,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2895" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2895" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2895" t="s">
-        <v>1838</v>
+        <v>1245</v>
       </c>
       <c r="B2895" t="s">
         <v>1</v>
@@ -51913,7 +51913,7 @@
         <v>1</v>
       </c>
       <c r="D2895">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E2895" t="s">
         <v>2477</v>
@@ -51964,18 +51964,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2899" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2899" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2899" t="s">
-        <v>1842</v>
+        <v>1245</v>
       </c>
       <c r="B2899" t="s">
-        <v>1</v>
+        <v>2315</v>
       </c>
       <c r="C2899" t="s">
         <v>1</v>
       </c>
       <c r="D2899">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E2899" t="s">
         <v>2477</v>
@@ -51995,18 +51995,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2901" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2901" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2901" t="s">
-        <v>1844</v>
+        <v>165</v>
       </c>
       <c r="B2901" t="s">
-        <v>1</v>
+        <v>2211</v>
       </c>
       <c r="C2901" t="s">
         <v>1</v>
       </c>
       <c r="D2901">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E2901" t="s">
         <v>2477</v>
@@ -52133,18 +52133,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2910" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2910" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2910" t="s">
-        <v>1853</v>
+        <v>15</v>
       </c>
       <c r="B2910" t="s">
-        <v>1</v>
+        <v>2007</v>
       </c>
       <c r="C2910" t="s">
         <v>1</v>
       </c>
       <c r="D2910">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E2910" t="s">
         <v>2477</v>
@@ -52164,18 +52164,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2912" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2912" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2912" t="s">
-        <v>1854</v>
+        <v>15</v>
       </c>
       <c r="B2912" t="s">
-        <v>1</v>
+        <v>2102</v>
       </c>
       <c r="C2912" t="s">
         <v>1</v>
       </c>
       <c r="D2912">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E2912" t="s">
         <v>2477</v>
@@ -52428,18 +52428,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2930" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2930" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2930" t="s">
-        <v>1872</v>
+        <v>15</v>
       </c>
       <c r="B2930" t="s">
-        <v>1</v>
+        <v>2264</v>
       </c>
       <c r="C2930" t="s">
         <v>1</v>
       </c>
       <c r="D2930">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E2930" t="s">
         <v>2477</v>
@@ -53103,9 +53103,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2975" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2975" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2975" t="s">
-        <v>1917</v>
+        <v>1246</v>
       </c>
       <c r="B2975" t="s">
         <v>1</v>
@@ -53114,7 +53114,7 @@
         <v>1</v>
       </c>
       <c r="D2975">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E2975" t="s">
         <v>2477</v>
@@ -53589,18 +53589,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3008" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3008" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3008" t="s">
-        <v>1949</v>
+        <v>1246</v>
       </c>
       <c r="B3008" t="s">
-        <v>1</v>
+        <v>2316</v>
       </c>
       <c r="C3008" t="s">
         <v>1</v>
       </c>
       <c r="D3008">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E3008" t="s">
         <v>2477</v>
@@ -53623,9 +53623,9 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="3010" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3010" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3010" t="s">
-        <v>1951</v>
+        <v>1838</v>
       </c>
       <c r="B3010" t="s">
         <v>1</v>
@@ -53634,7 +53634,7 @@
         <v>1</v>
       </c>
       <c r="D3010">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3010" t="s">
         <v>2477</v>
@@ -53668,7 +53668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3013" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3013" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3013" t="s">
         <v>1954</v>
       </c>
@@ -54091,11 +54091,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F3041">
+    <filterColumn colId="1">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="t"/>
+        <filter val="?"/>
       </filters>
     </filterColumn>
+    <sortState ref="A21:F3010">
+      <sortCondition ref="A1:A3041"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -56038,7 +56044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -56059,7 +56065,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -56139,7 +56145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
